--- a/LeanApps/TestData/LoginTestCases.xlsx
+++ b/LeanApps/TestData/LoginTestCases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C-Automation\TestNG\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\SeleniumTest\LeanApps\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -58,12 +58,15 @@
   </si>
   <si>
     <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -438,20 +441,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,16 +488,21 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -502,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -513,39 +521,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -556,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
